--- a/biology/Histoire de la zoologie et de la botanique/Christian_Georg_Brügger/Christian_Georg_Brügger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christian_Georg_Brügger/Christian_Georg_Brügger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christian_Georg_Br%C3%BCgger</t>
+          <t>Christian_Georg_Brügger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Georg Brügger (11 mars 1833, Churwalden – 16 octobre 1899) est un botaniste et naturaliste suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christian_Georg_Br%C3%BCgger</t>
+          <t>Christian_Georg_Brügger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie les sciences naturelles à Munich et Innsbruck, après quoi il est pendant plusieurs années conservateur du musée botanique à l'École polytechnique fédérale de Zurich[1], de 1859 à 1870. De 1870 à 1898, il enseigne l'histoire naturelle et la géographie à l'école du canton des Grisons[2]
-Il est l'auteur de nombreux articles de botanique, zoologie, ou encore de météorologie. Ils sont publiés dans la Jahresberichte der Naturforschenden Gesellschaft Graubünden. Taxonomiste, il décrit de nombreuses espèces botaniques[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie les sciences naturelles à Munich et Innsbruck, après quoi il est pendant plusieurs années conservateur du musée botanique à l'École polytechnique fédérale de Zurich, de 1859 à 1870. De 1870 à 1898, il enseigne l'histoire naturelle et la géographie à l'école du canton des Grisons
+Il est l'auteur de nombreux articles de botanique, zoologie, ou encore de météorologie. Ils sont publiés dans la Jahresberichte der Naturforschenden Gesellschaft Graubünden. Taxonomiste, il décrit de nombreuses espèces botaniques.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christian_Georg_Br%C3%BCgger</t>
+          <t>Christian_Georg_Brügger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beitrag zur rhätischen Laubmoosflora aus den Jahren 1851-1855, 1861. (Contribution à l'étude des mousses présentes dans les Alpes rhétiques de 1851 à 1855.)
 Beobachtungen über wildwachsende Pflanzenbastarde der Schweizer- und Nachbar-Floren, 1878. (Observations sur les plantes hybrides sauvages de Suisse et des régions voisines.)
